--- a/data_unparsed/data_sources.xlsx
+++ b/data_unparsed/data_sources.xlsx
@@ -2536,13 +2536,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2578,7 +2584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2592,14 +2598,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2919,8 +2928,8 @@
     <col min="6" max="6" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="30.862142857142857" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -2959,7 +2968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="53.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="99.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="141" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="228.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="276" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="53.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="64.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="76.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="100.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
